--- a/xlsx/FR/footprint_transport_FR.xlsx
+++ b/xlsx/FR/footprint_transport_FR.xlsx
@@ -12,30 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Coach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Least</t>
   </si>
 </sst>
 </file>
@@ -386,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0932897155296219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.268609193537087</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.638101090933291</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +397,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.162418188446348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.599311676878084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.238270134675568</v>
       </c>
     </row>
     <row r="4">
@@ -414,27 +411,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.74429209602403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.132079129584829</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.123628774391141</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/footprint_transport_FR.xlsx
+++ b/xlsx/FR/footprint_transport_FR.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0932897155296219</v>
+        <v>0.119158095946443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.268609193537087</v>
+        <v>0.260572826566292</v>
       </c>
       <c r="D2" t="n">
-        <v>0.638101090933291</v>
+        <v>0.620269077487265</v>
       </c>
     </row>
     <row r="3">
@@ -397,13 +397,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.162418188446348</v>
+        <v>0.160031853158305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.599311676878084</v>
+        <v>0.587252243847468</v>
       </c>
       <c r="D3" t="n">
-        <v>0.238270134675568</v>
+        <v>0.252715902994228</v>
       </c>
     </row>
     <row r="4">
@@ -411,13 +411,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.74429209602403</v>
+        <v>0.720810050895252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.132079129584829</v>
+        <v>0.15217492958624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.123628774391141</v>
+        <v>0.127015019518508</v>
       </c>
     </row>
   </sheetData>
